--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>[310000,0,178100]</t>
+  </si>
+  <si>
+    <t>[310000,0,178200]</t>
   </si>
 </sst>
 </file>
@@ -1041,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1174,6 +1177,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -74,16 +74,10 @@
     <t>刷怪周期(秒)</t>
   </si>
   <si>
-    <t>[310000,0,178000]</t>
+    <t>[310000,0,180000]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>[310000,0,178100]</t>
-  </si>
-  <si>
-    <t>[310000,0,178200]</t>
   </si>
 </sst>
 </file>
@@ -1044,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1136,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1148,7 +1142,7 @@
         <v>1001</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>20</v>
@@ -1159,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -1171,7 +1165,7 @@
         <v>1001</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>20</v>
@@ -1182,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -1194,10 +1188,33 @@
         <v>1002</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>刷怪周期(秒)</t>
   </si>
   <si>
-    <t>[310000,0,180000]</t>
+    <t>[310000,1000,180000]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="22125" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22125" windowHeight="9720"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -74,10 +74,19 @@
     <t>刷怪周期(秒)</t>
   </si>
   <si>
-    <t>[310000,1000,180000]</t>
+    <t>[310000,1000,182000]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>[310000,1000,184000]</t>
+  </si>
+  <si>
+    <t>[310000,1000,186000]</t>
+  </si>
+  <si>
+    <t>[310000,1000,188000]</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1050,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1153,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -1176,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -1199,10 +1208,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>19</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Period</t>
   </si>
   <si>
+    <t>SpawnNum</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>刷怪周期(秒)</t>
+  </si>
+  <si>
+    <t>刷怪数量</t>
   </si>
   <si>
     <t>[310000,1000,182000]</t>
@@ -1047,13 +1053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1062,10 +1068,11 @@
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="15.8583333333333" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="11.4583333333333" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,54 +1094,63 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1142,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>1001</v>
@@ -1156,8 +1172,11 @@
       <c r="G4" s="3">
         <v>20</v>
       </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1165,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3">
         <v>1001</v>
@@ -1179,8 +1198,11 @@
       <c r="G5" s="3">
         <v>20</v>
       </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1188,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -1202,8 +1224,11 @@
       <c r="G6" s="3">
         <v>20</v>
       </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1211,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>1003</v>
@@ -1224,6 +1249,9 @@
       </c>
       <c r="G7" s="3">
         <v>60</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1251,7 +1251,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="28785" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -1233,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>[310000,1000,186000]</t>
   </si>
   <si>
-    <t>[310000,1000,188000]</t>
+    <t>[37000,1000,24000]</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1248,10 +1248,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -92,7 +92,7 @@
     <t>[310000,1000,186000]</t>
   </si>
   <si>
-    <t>[37000,1000,24000]</t>
+    <t>[37000,2000,24000]</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnDefine" sheetId="1" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1248,10 +1248,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1245,7 +1245,7 @@
         <v>1003</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -26,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>大凉龙雀</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0.为空
+1.基于出生点出生点巡逻
+2.定点巡逻</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +87,15 @@
     <t>SpawnNum</t>
   </si>
   <si>
+    <t>PatrolType</t>
+  </si>
+  <si>
+    <t>PatrolPath</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -80,19 +123,38 @@
     <t>刷怪数量</t>
   </si>
   <si>
-    <t>[310000,1000,182000]</t>
+    <t>巡逻类型</t>
+  </si>
+  <si>
+    <t>AI名称</t>
+  </si>
+  <si>
+    <t>[50000,1000,43000]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
   </si>
   <si>
+    <t>WoodenDummy</t>
+  </si>
+  <si>
     <t>[310000,1000,184000]</t>
   </si>
   <si>
+    <t>Boss</t>
+  </si>
+  <si>
     <t>[310000,1000,186000]</t>
   </si>
   <si>
-    <t>[37000,2000,24000]</t>
+    <t>50000,1000,77000
+75000,1000,66000
+84000,1000,43000
+74000,1000,19000
+50000,1000,9000
+25000,1000,19000
+16000,1000,43000
+25000,1000,66000</t>
   </si>
 </sst>
 </file>
@@ -105,7 +167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +326,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -723,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,13 +1129,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
@@ -1069,10 +1145,13 @@
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="15.8583333333333" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.4583333333333" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="12.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.6" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.6833333333333" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,60 +1176,84 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1158,25 +1261,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1184,10 +1293,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3">
         <v>1001</v>
@@ -1201,8 +1310,14 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1210,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -1227,8 +1342,14 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" ht="124" customHeight="1" spans="1:11">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1236,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>1003</v>
@@ -1251,12 +1372,22 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -129,22 +129,25 @@
     <t>AI名称</t>
   </si>
   <si>
+    <t>[10000,1000,80000]</t>
+  </si>
+  <si>
+    <t>[0,0,0]</t>
+  </si>
+  <si>
+    <t>WoodenDummy</t>
+  </si>
+  <si>
+    <t>[310000,1000,184000]</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>[310000,1000,186000]</t>
+  </si>
+  <si>
     <t>[50000,1000,43000]</t>
-  </si>
-  <si>
-    <t>[0,0,0]</t>
-  </si>
-  <si>
-    <t>WoodenDummy</t>
-  </si>
-  <si>
-    <t>[310000,1000,184000]</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>[310000,1000,186000]</t>
   </si>
   <si>
     <t>50000,1000,77000
@@ -1132,7 +1135,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
@@ -1276,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1357,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -1372,13 +1375,13 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>26</v>

--- a/Tools/excel2json/excel/SpawnDefine.xlsx
+++ b/Tools/excel2json/excel/SpawnDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -872,6 +872,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,7 +1142,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
@@ -1279,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1375,7 +1382,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
